--- a/data/trans_orig/P33_1_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>22411</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14668</v>
+        <v>15090</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32602</v>
+        <v>32193</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0327152681614309</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02141245680949156</v>
+        <v>0.02202741508788761</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04759067961096394</v>
+        <v>0.04699393665638597</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -765,19 +765,19 @@
         <v>18726</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11208</v>
+        <v>11512</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29176</v>
+        <v>29164</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02731241590001493</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01634694452679347</v>
+        <v>0.01679105768722536</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04255358531584248</v>
+        <v>0.04253631042716344</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -786,19 +786,19 @@
         <v>41137</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29715</v>
+        <v>29419</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55308</v>
+        <v>55864</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0300127012953977</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02167937881981214</v>
+        <v>0.0214632251800374</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04035134609128528</v>
+        <v>0.04075681467371659</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>71481</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>56776</v>
+        <v>58336</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>87925</v>
+        <v>89218</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1043452574297855</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08288041317121216</v>
+        <v>0.08515695717743649</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1283503415677377</v>
+        <v>0.1302375996089871</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>113</v>
@@ -836,19 +836,19 @@
         <v>111356</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>90789</v>
+        <v>94841</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>129708</v>
+        <v>132403</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1624166084886874</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1324188295917952</v>
+        <v>0.1383286553617182</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1891835702799641</v>
+        <v>0.1931148674866232</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>184</v>
@@ -857,19 +857,19 @@
         <v>182837</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>157216</v>
+        <v>158901</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>208265</v>
+        <v>208332</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1333931938981499</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1147012719471783</v>
+        <v>0.1159301250970681</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1519447058155052</v>
+        <v>0.1519941016013882</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>591149</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>572616</v>
+        <v>571419</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>608605</v>
+        <v>605667</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8629394744087836</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8358853944517028</v>
+        <v>0.8341377222546502</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8884212467367749</v>
+        <v>0.8841320461070633</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>562</v>
@@ -907,19 +907,19 @@
         <v>555538</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>535201</v>
+        <v>533575</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>576395</v>
+        <v>573120</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8102709756112977</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7806091354224552</v>
+        <v>0.778237466944002</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8406911642632739</v>
+        <v>0.8359146072103119</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1142</v>
@@ -928,19 +928,19 @@
         <v>1146686</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1119984</v>
+        <v>1119481</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1172352</v>
+        <v>1173955</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8365941048064525</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8171130344583182</v>
+        <v>0.8167462531583056</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8553192638450166</v>
+        <v>0.8564887924733662</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>62172</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>47777</v>
+        <v>46429</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>79640</v>
+        <v>78772</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0654763827962518</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0503160624157484</v>
+        <v>0.04889622527722894</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08387217573730164</v>
+        <v>0.08295794175485595</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>27</v>
@@ -1053,19 +1053,19 @@
         <v>31620</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>21860</v>
+        <v>22054</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>45629</v>
+        <v>46413</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03285944958261313</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02271722864896466</v>
+        <v>0.02291880522239153</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0474181480797406</v>
+        <v>0.0482327637706719</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>84</v>
@@ -1074,19 +1074,19 @@
         <v>93792</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>75069</v>
+        <v>75469</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>115526</v>
+        <v>115525</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0490592278223955</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03926603026745176</v>
+        <v>0.03947523392195081</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06042718120341678</v>
+        <v>0.06042674009392883</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>135087</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>112114</v>
+        <v>114447</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>157431</v>
+        <v>156633</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1422663265981735</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.118071976909922</v>
+        <v>0.1205292762030178</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1657979374674618</v>
+        <v>0.1649572386126611</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>189</v>
@@ -1124,19 +1124,19 @@
         <v>200579</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>176023</v>
+        <v>174243</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>226419</v>
+        <v>226715</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2084413413466759</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1829235629000857</v>
+        <v>0.1810736416484541</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2352945374033256</v>
+        <v>0.235602482275238</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>312</v>
@@ -1145,19 +1145,19 @@
         <v>335666</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>305757</v>
+        <v>304602</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>373936</v>
+        <v>371065</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1755743468650548</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1599304804924263</v>
+        <v>0.1593262748275694</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.195592320247238</v>
+        <v>0.1940905701220582</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>752278</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>727889</v>
+        <v>724213</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>775676</v>
+        <v>778212</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7922572906055747</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7665725623770626</v>
+        <v>0.7627014339072444</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8168995966122277</v>
+        <v>0.8195703585509587</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>686</v>
@@ -1195,19 +1195,19 @@
         <v>730080</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>702032</v>
+        <v>703926</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>757590</v>
+        <v>757017</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.758699209070711</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7295523647737595</v>
+        <v>0.7315207889627096</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7872878532086093</v>
+        <v>0.7866928173260646</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1390</v>
@@ -1216,19 +1216,19 @@
         <v>1482357</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1442904</v>
+        <v>1444295</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1515393</v>
+        <v>1517982</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7753664253125497</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7547297706124177</v>
+        <v>0.7554577225103416</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7926461995292776</v>
+        <v>0.7940002666779385</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>23658</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15019</v>
+        <v>15399</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>34310</v>
+        <v>36071</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03527724079071134</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02239525863984074</v>
+        <v>0.02296283496981534</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0511613642913283</v>
+        <v>0.05378675122982147</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>29</v>
@@ -1341,19 +1341,19 @@
         <v>27985</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>19144</v>
+        <v>19205</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>40140</v>
+        <v>39617</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04130444458328705</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02825612985045074</v>
+        <v>0.0283451863923203</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05924443080546617</v>
+        <v>0.05847242914469245</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>52</v>
@@ -1362,19 +1362,19 @@
         <v>51643</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>37839</v>
+        <v>39573</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>64800</v>
+        <v>68589</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03830628579681446</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02806708741968056</v>
+        <v>0.02935342269127281</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0480656547731372</v>
+        <v>0.05087622067114605</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>110600</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>90560</v>
+        <v>91205</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>129497</v>
+        <v>130232</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1649218202642745</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1350380806810074</v>
+        <v>0.1360001374931617</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1931000292466528</v>
+        <v>0.1941953864079222</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>176</v>
@@ -1412,19 +1412,19 @@
         <v>176537</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>155863</v>
+        <v>155164</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>201376</v>
+        <v>198623</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2605598281807627</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2300454115252883</v>
+        <v>0.2290143380811594</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2972208767806503</v>
+        <v>0.2931568178497077</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>281</v>
@@ -1433,19 +1433,19 @@
         <v>287137</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>257471</v>
+        <v>258116</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>318206</v>
+        <v>318727</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2129858712309816</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1909805027728389</v>
+        <v>0.1914593354039732</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2360312584371414</v>
+        <v>0.2364178951035524</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>536364</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>515108</v>
+        <v>513638</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>557439</v>
+        <v>557454</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7998009389450141</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7681046323636548</v>
+        <v>0.7659134338245215</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8312271295881655</v>
+        <v>0.8312496352997991</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>485</v>
@@ -1483,19 +1483,19 @@
         <v>473008</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>447472</v>
+        <v>450696</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>493552</v>
+        <v>495179</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6981357272359503</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6604461548620729</v>
+        <v>0.6652051436776848</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7284581853526598</v>
+        <v>0.7308592293457224</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>989</v>
@@ -1504,19 +1504,19 @@
         <v>1009372</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>978504</v>
+        <v>975381</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1039716</v>
+        <v>1040156</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7487078429722039</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7258114928208609</v>
+        <v>0.7234946580977368</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7712157358152677</v>
+        <v>0.7715419049442342</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>32148</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23578</v>
+        <v>23091</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45019</v>
+        <v>43306</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03477668266348821</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0255065757492769</v>
+        <v>0.02497877328218573</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04870099572304666</v>
+        <v>0.04684788202827867</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -1629,19 +1629,19 @@
         <v>52924</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>40465</v>
+        <v>40091</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69060</v>
+        <v>68828</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05129702276142653</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03922105824996808</v>
+        <v>0.03885896461591443</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06693710431979891</v>
+        <v>0.06671223393404291</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>86</v>
@@ -1650,19 +1650,19 @@
         <v>85071</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>67781</v>
+        <v>67274</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>104839</v>
+        <v>104598</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04348997028420939</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03465098891792816</v>
+        <v>0.03439144322580376</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05359559937667142</v>
+        <v>0.05347222305280944</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>140822</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>119427</v>
+        <v>121760</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>162261</v>
+        <v>162862</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1523375879053822</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1291937155589695</v>
+        <v>0.1317174675043375</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1755300358099803</v>
+        <v>0.1761799529813305</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>178</v>
@@ -1700,19 +1700,19 @@
         <v>187273</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>162266</v>
+        <v>162681</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>214142</v>
+        <v>214911</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.181517492281365</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1572791439358655</v>
+        <v>0.1576812441747462</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2075600306924652</v>
+        <v>0.2083053512226175</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>325</v>
@@ -1721,19 +1721,19 @@
         <v>328095</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>295975</v>
+        <v>295211</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>359688</v>
+        <v>363270</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.167727882419041</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1513077313490949</v>
+        <v>0.1509166689527812</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.183878676109953</v>
+        <v>0.185710014436126</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>751436</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>726950</v>
+        <v>728848</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>772272</v>
+        <v>774033</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8128857294311297</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7863970703300033</v>
+        <v>0.788450241524423</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8354253844333172</v>
+        <v>0.8373301718330129</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>763</v>
@@ -1771,19 +1771,19 @@
         <v>791513</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>764116</v>
+        <v>762053</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>818543</v>
+        <v>818642</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7671854849572085</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7406304269145332</v>
+        <v>0.7386313579776328</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7933848489765118</v>
+        <v>0.7934806650852961</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1555</v>
@@ -1792,19 +1792,19 @@
         <v>1542949</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1506749</v>
+        <v>1505073</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1576108</v>
+        <v>1574986</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7887821472967496</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7702760498961468</v>
+        <v>0.7694188704198803</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8057332802802734</v>
+        <v>0.8051598911133753</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>140389</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>119124</v>
+        <v>119409</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>165854</v>
+        <v>165409</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04346939335260831</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03688507039816613</v>
+        <v>0.03697328042468311</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05135437130685597</v>
+        <v>0.05121655572587894</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>123</v>
@@ -1917,19 +1917,19 @@
         <v>131255</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>110063</v>
+        <v>109600</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>154682</v>
+        <v>156552</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03909714868659508</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03278480212470043</v>
+        <v>0.03264672684628046</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04607550598782015</v>
+        <v>0.0466326965748675</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>263</v>
@@ -1938,19 +1938,19 @@
         <v>271643</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>239535</v>
+        <v>239990</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>305368</v>
+        <v>304181</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04124094320131146</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03636625373585536</v>
+        <v>0.03643524583728543</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04636106688353403</v>
+        <v>0.04618079150394033</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>457990</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>420346</v>
+        <v>417975</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>497368</v>
+        <v>499827</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1418098375835028</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1301541261399574</v>
+        <v>0.129419714805456</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1540027379720045</v>
+        <v>0.1547639888489108</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>656</v>
@@ -1988,19 +1988,19 @@
         <v>675745</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>623225</v>
+        <v>633201</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>721607</v>
+        <v>726327</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2012860747920737</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1856418382496907</v>
+        <v>0.1886133619344199</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2149470819199793</v>
+        <v>0.2163529258835915</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1102</v>
@@ -2009,19 +2009,19 @@
         <v>1133735</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1073359</v>
+        <v>1075657</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1198301</v>
+        <v>1196816</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1721237472410019</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1629574546001714</v>
+        <v>0.1633064173849979</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1819261396385817</v>
+        <v>0.1817006955095732</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>2631226</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2587365</v>
+        <v>2581920</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2675627</v>
+        <v>2673141</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8147207690638889</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8011396818480018</v>
+        <v>0.799453884210597</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8284687145329995</v>
+        <v>0.8276989329790363</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2496</v>
@@ -2059,19 +2059,19 @@
         <v>2550138</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2499789</v>
+        <v>2497780</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2602981</v>
+        <v>2598806</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7596167765213312</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7446189737634016</v>
+        <v>0.7440205837484555</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7753572459064338</v>
+        <v>0.7741134779838093</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5076</v>
@@ -2080,19 +2080,19 @@
         <v>5181365</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5112532</v>
+        <v>5114438</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5249869</v>
+        <v>5248896</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7866353095576866</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7761851318276137</v>
+        <v>0.7764745662851082</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7970356449495428</v>
+        <v>0.7968879142685767</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>38095</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26526</v>
+        <v>27275</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52355</v>
+        <v>52397</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05423538685290222</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03776532037571181</v>
+        <v>0.03883064395796262</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07453720284245784</v>
+        <v>0.07459713371822088</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -2445,19 +2445,19 @@
         <v>28033</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18732</v>
+        <v>18888</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39964</v>
+        <v>41021</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04028493298908323</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02691821402584763</v>
+        <v>0.0271423786764371</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05743026257868974</v>
+        <v>0.05894869563233355</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>62</v>
@@ -2466,19 +2466,19 @@
         <v>66128</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49701</v>
+        <v>51617</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82713</v>
+        <v>84167</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04729269896894528</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03554446320601792</v>
+        <v>0.03691493203162895</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05915368941478587</v>
+        <v>0.0601935843090032</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>156994</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>134547</v>
+        <v>134557</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>177719</v>
+        <v>181396</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2235109632516923</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.191552981934584</v>
+        <v>0.1915678300934353</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2530162030379634</v>
+        <v>0.2582515870761713</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>189</v>
@@ -2516,19 +2516,19 @@
         <v>202719</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>179272</v>
+        <v>179658</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>231162</v>
+        <v>228269</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.291314178784593</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2576195253057049</v>
+        <v>0.2581741633952591</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3321879076746559</v>
+        <v>0.3280298980618054</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>340</v>
@@ -2537,19 +2537,19 @@
         <v>359713</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>328214</v>
+        <v>328143</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>393122</v>
+        <v>392776</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2572544218924512</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2347270770730082</v>
+        <v>0.2346764450518627</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2811474653521366</v>
+        <v>0.2809000369430013</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>507311</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>483366</v>
+        <v>481265</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>530947</v>
+        <v>530950</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7222536498954054</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6881630317218865</v>
+        <v>0.6851716245992521</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7559034547248796</v>
+        <v>0.7559084630388545</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>434</v>
@@ -2587,19 +2587,19 @@
         <v>465125</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>435543</v>
+        <v>438874</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>488767</v>
+        <v>489437</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6684008882263237</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6258892550520222</v>
+        <v>0.63067717612221</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7023747800221437</v>
+        <v>0.7033374470850895</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>920</v>
@@ -2608,19 +2608,19 @@
         <v>972436</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>936338</v>
+        <v>937938</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1004405</v>
+        <v>1009303</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6954528791386035</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6696364131779863</v>
+        <v>0.6707807741468846</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7183156869136968</v>
+        <v>0.7218183039867092</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>63125</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>48390</v>
+        <v>47989</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>82374</v>
+        <v>80876</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06213334874164355</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04762924228073943</v>
+        <v>0.04723520302227206</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0810799355208081</v>
+        <v>0.079605641593907</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>63</v>
@@ -2733,19 +2733,19 @@
         <v>68920</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>52494</v>
+        <v>53691</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>84800</v>
+        <v>85824</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0668398101522753</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05090927938988311</v>
+        <v>0.05207070783324702</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08224104951096553</v>
+        <v>0.08323371443583041</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>120</v>
@@ -2754,19 +2754,19 @@
         <v>132045</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>110153</v>
+        <v>110361</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>157556</v>
+        <v>159762</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06450400224883217</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05380977597831215</v>
+        <v>0.05391123314397126</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07696628484537214</v>
+        <v>0.0780438396515063</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>203447</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>176344</v>
+        <v>177035</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>230364</v>
+        <v>229543</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2002501072449514</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1735731620618177</v>
+        <v>0.1742529437480681</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2267446717062253</v>
+        <v>0.2259359662460446</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>258</v>
@@ -2804,19 +2804,19 @@
         <v>282683</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>253771</v>
+        <v>251915</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>311180</v>
+        <v>310033</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2741511221246645</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.246111551473072</v>
+        <v>0.2443123508130617</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3017880791268905</v>
+        <v>0.3006764289023898</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>444</v>
@@ -2825,19 +2825,19 @@
         <v>486129</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>448003</v>
+        <v>448905</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>529637</v>
+        <v>527686</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2374741881040088</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.218849670578867</v>
+        <v>0.2192903068821116</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2587277820880212</v>
+        <v>0.2577747494612688</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>749391</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>718647</v>
+        <v>719495</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>776620</v>
+        <v>780118</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.737616544013405</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7073559478051751</v>
+        <v>0.708189691557023</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7644179448722607</v>
+        <v>0.7678604036337164</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>618</v>
@@ -2875,19 +2875,19 @@
         <v>679517</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>649632</v>
+        <v>651328</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>710853</v>
+        <v>711369</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6590090677230602</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6300255956291986</v>
+        <v>0.6316708995373668</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6893988765808197</v>
+        <v>0.6898990417871003</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1309</v>
@@ -2896,19 +2896,19 @@
         <v>1428909</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1384566</v>
+        <v>1386569</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1470377</v>
+        <v>1468829</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.698021809647159</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6763603364969011</v>
+        <v>0.677339154629359</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7182791540992189</v>
+        <v>0.7175228582784721</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>33768</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22608</v>
+        <v>22703</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>47550</v>
+        <v>47731</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04468965696778437</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02991942587770145</v>
+        <v>0.03004519667626013</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06292833384704384</v>
+        <v>0.06316873379253841</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>27</v>
@@ -3021,19 +3021,19 @@
         <v>33111</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>22917</v>
+        <v>22383</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>49088</v>
+        <v>47857</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04265810549671021</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0295247262021043</v>
+        <v>0.02883738123634815</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06324144108398756</v>
+        <v>0.06165659383652165</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>58</v>
@@ -3042,19 +3042,19 @@
         <v>66879</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>51635</v>
+        <v>49504</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>86720</v>
+        <v>84098</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04366023782163406</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03370865588426108</v>
+        <v>0.03231723175656202</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05661262935484353</v>
+        <v>0.05490128466086543</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>136086</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>115355</v>
+        <v>115312</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>159891</v>
+        <v>159708</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1800991000945958</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1526635049790653</v>
+        <v>0.152606334499882</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2116032625285436</v>
+        <v>0.2113601358466232</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>180</v>
@@ -3092,19 +3092,19 @@
         <v>195307</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>169268</v>
+        <v>168186</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>221706</v>
+        <v>220109</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2516219347504915</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2180745341980268</v>
+        <v>0.2166810581560796</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2856330707160747</v>
+        <v>0.2835754957861691</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>303</v>
@@ -3113,19 +3113,19 @@
         <v>331393</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>298524</v>
+        <v>299929</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>366250</v>
+        <v>367307</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2163408475620091</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1948830678828928</v>
+        <v>0.1958005639595871</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2390959166009195</v>
+        <v>0.2397861084084653</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>585764</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>562043</v>
+        <v>560701</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>610339</v>
+        <v>607894</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7752112429376198</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7438185026214944</v>
+        <v>0.7420425488067233</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.807735358157209</v>
+        <v>0.8044989269508248</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>497</v>
@@ -3163,19 +3163,19 @@
         <v>547774</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>517880</v>
+        <v>521388</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>572768</v>
+        <v>575248</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7057199597527983</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.667206437643056</v>
+        <v>0.6717250664291053</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7379199249103304</v>
+        <v>0.7411157310261023</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1030</v>
@@ -3184,19 +3184,19 @@
         <v>1133538</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1097409</v>
+        <v>1098030</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1170368</v>
+        <v>1167681</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7399989146163568</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7164130647361758</v>
+        <v>0.7168185137149046</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7640427299878221</v>
+        <v>0.7622885424714937</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>58447</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44233</v>
+        <v>43878</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>76494</v>
+        <v>75745</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06220580710136357</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04707796273392101</v>
+        <v>0.04669994189302157</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08141285828481015</v>
+        <v>0.08061554795135178</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>50</v>
@@ -3309,19 +3309,19 @@
         <v>51019</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37871</v>
+        <v>37829</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>65379</v>
+        <v>66075</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04878656485303122</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03621389792688622</v>
+        <v>0.03617328315411379</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06251810642597154</v>
+        <v>0.06318313930401974</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>103</v>
@@ -3330,19 +3330,19 @@
         <v>109467</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>89486</v>
+        <v>90681</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>134370</v>
+        <v>132378</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05513730837175302</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0450733509955626</v>
+        <v>0.04567515642771431</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06768100078716216</v>
+        <v>0.06667742811614762</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>194556</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>169290</v>
+        <v>171336</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>219739</v>
+        <v>220713</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2070671843673159</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1801766646728083</v>
+        <v>0.1823542699049905</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2338694992019114</v>
+        <v>0.2349068188223577</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>277</v>
@@ -3380,19 +3380,19 @@
         <v>291969</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>262999</v>
+        <v>264485</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>325512</v>
+        <v>323096</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.279190754386393</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2514892629043943</v>
+        <v>0.2529096590848972</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3112660899596277</v>
+        <v>0.3089555497210425</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>465</v>
@@ -3401,19 +3401,19 @@
         <v>486525</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>449184</v>
+        <v>446577</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>526133</v>
+        <v>525496</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2450578066111448</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2262496906871579</v>
+        <v>0.2249368247949889</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2650082793962228</v>
+        <v>0.2646873320836223</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>686575</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>659834</v>
+        <v>657532</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>717216</v>
+        <v>714103</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7307270085313206</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7022660379400572</v>
+        <v>0.6998165776323234</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.763338850529532</v>
+        <v>0.7600254145060478</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>670</v>
@@ -3451,19 +3451,19 @@
         <v>702780</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>672667</v>
+        <v>667533</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>732669</v>
+        <v>730600</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6720226807605758</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6432276833035377</v>
+        <v>0.6383185201260166</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7006037917077438</v>
+        <v>0.6986255854986879</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1332</v>
@@ -3472,19 +3472,19 @@
         <v>1389355</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1346778</v>
+        <v>1347765</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1431912</v>
+        <v>1430848</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6998048850171021</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6783593406687445</v>
+        <v>0.6788564858910909</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7212406154630143</v>
+        <v>0.720704465004238</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>193436</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>167836</v>
+        <v>166965</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>224803</v>
+        <v>220748</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05666685191426234</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04916745598885154</v>
+        <v>0.04891219043333451</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0658557703533245</v>
+        <v>0.06466804267172076</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>166</v>
@@ -3597,19 +3597,19 @@
         <v>181084</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>155318</v>
+        <v>154626</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>209441</v>
+        <v>209095</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05102443279996165</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04376429630915099</v>
+        <v>0.04356933052386511</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05901471200550135</v>
+        <v>0.05891726800035291</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>343</v>
@@ -3618,19 +3618,19 @@
         <v>374519</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>337527</v>
+        <v>339759</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>418115</v>
+        <v>418637</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05379077911686167</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0484776863338004</v>
+        <v>0.04879835454065717</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06005228928170886</v>
+        <v>0.06012730750834573</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>691083</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>645583</v>
+        <v>642796</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>738593</v>
+        <v>739256</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2024522529157267</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1891231249454134</v>
+        <v>0.1883065840777239</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.216370292729986</v>
+        <v>0.2165646498750727</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>904</v>
@@ -3668,19 +3668,19 @@
         <v>972678</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>921079</v>
+        <v>921950</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1029614</v>
+        <v>1029791</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2740741121950195</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2595349819204705</v>
+        <v>0.2597803826695407</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2901171298721976</v>
+        <v>0.2901672304575391</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1552</v>
@@ -3689,19 +3689,19 @@
         <v>1663760</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1587399</v>
+        <v>1595119</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1735360</v>
+        <v>1741064</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2389595872699495</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2279921371496702</v>
+        <v>0.2291009560152743</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2492431291175898</v>
+        <v>0.2500623728570242</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>2529041</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2475877</v>
+        <v>2474207</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2578242</v>
+        <v>2577738</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.740880895170011</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7253063186853949</v>
+        <v>0.7248170623165755</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7552941103751369</v>
+        <v>0.7551464841603794</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2219</v>
@@ -3739,19 +3739,19 @@
         <v>2395197</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2333279</v>
+        <v>2337380</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2447361</v>
+        <v>2450113</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6749014550050187</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6574545668663216</v>
+        <v>0.6586101528081197</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6895998111834301</v>
+        <v>0.690375347867863</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4591</v>
@@ -3760,19 +3760,19 @@
         <v>4924238</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4845680</v>
+        <v>4839955</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5004106</v>
+        <v>4997089</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7072496336131888</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.695966675942261</v>
+        <v>0.6951444627719594</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7187208629726092</v>
+        <v>0.7177129790347291</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>42888</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31403</v>
+        <v>30923</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58868</v>
+        <v>57159</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06388967876214888</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04678062450493958</v>
+        <v>0.04606526899695064</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08769470137088853</v>
+        <v>0.08514891380248472</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>43</v>
@@ -4125,19 +4125,19 @@
         <v>44443</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33023</v>
+        <v>32835</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60164</v>
+        <v>58699</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06688629899229936</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04969950684401222</v>
+        <v>0.04941587645115943</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09054637087248557</v>
+        <v>0.08834211326195311</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>85</v>
@@ -4146,19 +4146,19 @@
         <v>87331</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>70451</v>
+        <v>72172</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>108100</v>
+        <v>107655</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06538032911838122</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05274347490382799</v>
+        <v>0.05403169029503453</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08092944236370499</v>
+        <v>0.08059605484582455</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>99397</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>79933</v>
+        <v>80171</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>118147</v>
+        <v>117010</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1480701406936003</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1190754801793334</v>
+        <v>0.1194292106063427</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1760026037405927</v>
+        <v>0.1743077510959345</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>154</v>
@@ -4196,19 +4196,19 @@
         <v>161247</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>140384</v>
+        <v>139401</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>187627</v>
+        <v>182966</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.242675407904751</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.211277931358496</v>
+        <v>0.2097984532404259</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2823779999580291</v>
+        <v>0.2753628901732965</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>246</v>
@@ -4217,19 +4217,19 @@
         <v>260643</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>231751</v>
+        <v>230057</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>292615</v>
+        <v>290409</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1951309506857547</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1735004708601426</v>
+        <v>0.172232308563293</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.219066230622864</v>
+        <v>0.2174151228337705</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>528997</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>507829</v>
+        <v>508928</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>551985</v>
+        <v>551293</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7880401805442508</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7565065277655237</v>
+        <v>0.7581426515227904</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8222845756994828</v>
+        <v>0.8212532384666797</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>461</v>
@@ -4267,19 +4267,19 @@
         <v>458764</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>431384</v>
+        <v>435522</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>481679</v>
+        <v>482799</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6904382931029496</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6492310413534081</v>
+        <v>0.6554577558705269</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7249238492907429</v>
+        <v>0.7266101942817976</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>976</v>
@@ -4288,19 +4288,19 @@
         <v>987762</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>953786</v>
+        <v>955323</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1019599</v>
+        <v>1022625</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7394887201958641</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7140527271207354</v>
+        <v>0.7152036549360676</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7633239993407187</v>
+        <v>0.7655888286728244</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>30883</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>20932</v>
+        <v>21214</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>42641</v>
+        <v>43703</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03030208766786873</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02053789697462685</v>
+        <v>0.0208145315164763</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04183796464932824</v>
+        <v>0.04288077030484352</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>30</v>
@@ -4413,19 +4413,19 @@
         <v>33915</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>23377</v>
+        <v>22647</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>48143</v>
+        <v>47272</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03258503195132618</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02246006019136448</v>
+        <v>0.02175902018303971</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04625523397080458</v>
+        <v>0.0454186418924648</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>61</v>
@@ -4434,19 +4434,19 @@
         <v>64798</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>50096</v>
+        <v>48464</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>83623</v>
+        <v>82659</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03145554480765844</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02431830173402349</v>
+        <v>0.02352605893081569</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04059401094917809</v>
+        <v>0.04012601678164457</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>166600</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>143020</v>
+        <v>144702</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>192180</v>
+        <v>194540</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1634645138257616</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1403281331202732</v>
+        <v>0.1419789068983462</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1885632483204135</v>
+        <v>0.1908784822703338</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>227</v>
@@ -4484,19 +4484,19 @@
         <v>250109</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>220013</v>
+        <v>222385</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>281617</v>
+        <v>280482</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2403018563331534</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2113862192187089</v>
+        <v>0.2136653039588007</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2705746489637229</v>
+        <v>0.269483988381597</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>381</v>
@@ -4505,19 +4505,19 @@
         <v>416709</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>383183</v>
+        <v>377868</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>461737</v>
+        <v>451546</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2022865656646232</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1860118180312795</v>
+        <v>0.1834316231563776</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2241449297322173</v>
+        <v>0.2191977319053608</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>821699</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>791903</v>
+        <v>794531</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>848604</v>
+        <v>847562</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8062333985063697</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7769981816907841</v>
+        <v>0.7795761823612888</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8326317105751407</v>
+        <v>0.8316094845894042</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>719</v>
@@ -4555,19 +4555,19 @@
         <v>756788</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>724804</v>
+        <v>725092</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>785145</v>
+        <v>787089</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7271131117155204</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6963835738655818</v>
+        <v>0.6966595146534736</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7543580102672002</v>
+        <v>0.7562256849552356</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1482</v>
@@ -4576,19 +4576,19 @@
         <v>1578487</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1536020</v>
+        <v>1543547</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1616416</v>
+        <v>1620808</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7662578895277183</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7456427838350576</v>
+        <v>0.749296920030588</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7846701777937182</v>
+        <v>0.7868025145725146</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>47926</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36186</v>
+        <v>34692</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>63936</v>
+        <v>63374</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06309827766943323</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04764118183543858</v>
+        <v>0.04567416476592065</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08417565170849033</v>
+        <v>0.08343631618069608</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>31</v>
@@ -4701,7 +4701,7 @@
         <v>36022</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>24115</v>
+        <v>24447</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>49102</v>
@@ -4710,10 +4710,10 @@
         <v>0.04594315715684421</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.030756272499604</v>
+        <v>0.0311799836081156</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06262553226702068</v>
+        <v>0.06262447217160905</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>77</v>
@@ -4722,19 +4722,19 @@
         <v>83949</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>66591</v>
+        <v>65887</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>105204</v>
+        <v>103574</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05438451495441893</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04313935630291811</v>
+        <v>0.04268365333918459</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06815402041206928</v>
+        <v>0.06709855558835207</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>150825</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>129216</v>
+        <v>129770</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>175021</v>
+        <v>175604</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1985704708053561</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1701214554218035</v>
+        <v>0.1708501513222744</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2304267798652272</v>
+        <v>0.2311943320084035</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>186</v>
@@ -4772,19 +4772,19 @@
         <v>205489</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>179011</v>
+        <v>182175</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>231552</v>
+        <v>233647</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2620819689695114</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2283116936737129</v>
+        <v>0.2323478503374897</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2953227568683974</v>
+        <v>0.2979955364221879</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>326</v>
@@ -4793,19 +4793,19 @@
         <v>356314</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>322259</v>
+        <v>324831</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>391375</v>
+        <v>388382</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.230830467129567</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2087690328725013</v>
+        <v>0.2104351574174187</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2535443897922832</v>
+        <v>0.2516051343888552</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>560801</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>535114</v>
+        <v>533816</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>585793</v>
+        <v>583839</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7383312515252107</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7045128926877554</v>
+        <v>0.7028042793101972</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7712350416332446</v>
+        <v>0.7686621309540292</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>518</v>
@@ -4843,19 +4843,19 @@
         <v>542552</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>517567</v>
+        <v>513796</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>571951</v>
+        <v>569147</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6919748738736444</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6601094814796807</v>
+        <v>0.6552993463519008</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7294702142600286</v>
+        <v>0.7258943910984664</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1028</v>
@@ -4864,19 +4864,19 @@
         <v>1103354</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1064987</v>
+        <v>1066697</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1139408</v>
+        <v>1137937</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7147850179160141</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6899299507867754</v>
+        <v>0.6910379711137012</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7381423330637908</v>
+        <v>0.7371891317333368</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>62322</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>49289</v>
+        <v>48998</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>78335</v>
+        <v>78758</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06647218391443259</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05257109806524211</v>
+        <v>0.05226065357537361</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08355132689939171</v>
+        <v>0.08400282140988204</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>42</v>
@@ -4989,19 +4989,19 @@
         <v>48991</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34986</v>
+        <v>36406</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>65415</v>
+        <v>66256</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04707623751549936</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03361901035680951</v>
+        <v>0.03498282081303604</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0628583969496023</v>
+        <v>0.06366679277020801</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>108</v>
@@ -5010,19 +5010,19 @@
         <v>111313</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>90308</v>
+        <v>91517</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>132103</v>
+        <v>132193</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05626874789081751</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04565077423209389</v>
+        <v>0.04626197839263017</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06677790540949542</v>
+        <v>0.06682359344844768</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>185780</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>163984</v>
+        <v>161365</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210911</v>
+        <v>212433</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1981508614560247</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1749034294320161</v>
+        <v>0.1721101746344757</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2249553631000724</v>
+        <v>0.2265787896869412</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>204</v>
@@ -5060,19 +5060,19 @@
         <v>226689</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>200649</v>
+        <v>199641</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>259650</v>
+        <v>256180</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2178290701552052</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1928064548508789</v>
+        <v>0.1918385623924708</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2495020823592243</v>
+        <v>0.2461669411747858</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>380</v>
@@ -5081,19 +5081,19 @@
         <v>412469</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>375181</v>
+        <v>376504</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>450077</v>
+        <v>454866</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2085027844502271</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1896537548312696</v>
+        <v>0.190322807519731</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2275139242234288</v>
+        <v>0.2299344879257302</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>689465</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>660119</v>
+        <v>661134</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>716504</v>
+        <v>716309</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7353769546295428</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7040764013966709</v>
+        <v>0.7051590485901632</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7642166774840468</v>
+        <v>0.7640081534946658</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>710</v>
@@ -5131,19 +5131,19 @@
         <v>764994</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>730907</v>
+        <v>735346</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>791032</v>
+        <v>792625</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7350946923292955</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7023400037011289</v>
+        <v>0.7066058034474603</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7601152565336156</v>
+        <v>0.7616461262487113</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1400</v>
@@ -5152,19 +5152,19 @@
         <v>1454459</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1411628</v>
+        <v>1413065</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1491159</v>
+        <v>1496646</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7352284676589554</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7135773705308751</v>
+        <v>0.7143036765387947</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7537803085922896</v>
+        <v>0.7565540064922687</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>184020</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>156583</v>
+        <v>157155</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>212679</v>
+        <v>210187</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05432187838783927</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04622274945674632</v>
+        <v>0.04639156317275397</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06278189193527625</v>
+        <v>0.06204635234667019</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>146</v>
@@ -5277,19 +5277,19 @@
         <v>163371</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>136436</v>
+        <v>138273</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>188434</v>
+        <v>190139</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04628072567113847</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03865052386572087</v>
+        <v>0.03917079725297443</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0533808102503114</v>
+        <v>0.05386382945752582</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>331</v>
@@ -5298,19 +5298,19 @@
         <v>347391</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>312182</v>
+        <v>314841</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>384016</v>
+        <v>384402</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05021852699250653</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04512873949750372</v>
+        <v>0.04551316076383629</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05551293140386488</v>
+        <v>0.05556883956858965</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>602601</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>562242</v>
+        <v>553753</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>652767</v>
+        <v>651100</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1778852977139783</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.165971386665085</v>
+        <v>0.1634655581113894</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1926939837070596</v>
+        <v>0.1922018101622656</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>771</v>
@@ -5348,19 +5348,19 @@
         <v>843533</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>792706</v>
+        <v>792469</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>890789</v>
+        <v>897270</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2389611383844353</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2245623565584573</v>
+        <v>0.2244954027543817</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.252348126922581</v>
+        <v>0.2541840437883056</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1333</v>
@@ -5369,19 +5369,19 @@
         <v>1446135</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1374955</v>
+        <v>1381458</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1509868</v>
+        <v>1524321</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2090519282787395</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1987621796684801</v>
+        <v>0.1997022646423287</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2182651280749571</v>
+        <v>0.2203544340655041</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>2600963</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2548476</v>
+        <v>2547476</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2647087</v>
+        <v>2651654</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7677928238981824</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7522989248894272</v>
+        <v>0.7520037011144863</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.781408392546881</v>
+        <v>0.7827566438392146</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2408</v>
@@ -5419,19 +5419,19 @@
         <v>2523098</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2470403</v>
+        <v>2466433</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2578865</v>
+        <v>2578048</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7147581359444263</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6998305208829499</v>
+        <v>0.6987059277760403</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7305561532948609</v>
+        <v>0.7303248284457015</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4886</v>
@@ -5440,19 +5440,19 @@
         <v>5124061</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5053588</v>
+        <v>5048930</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5198463</v>
+        <v>5197164</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.740729544728754</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.730542085927929</v>
+        <v>0.7298686662986493</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7514850174507148</v>
+        <v>0.7512972403761872</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>10144</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5535</v>
+        <v>5427</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17011</v>
+        <v>16829</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01499843524660292</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008183954547249165</v>
+        <v>0.008023695822910073</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02515229001633717</v>
+        <v>0.02488214957060068</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -5805,19 +5805,19 @@
         <v>13948</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7721</v>
+        <v>8048</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22093</v>
+        <v>22582</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01956551594249748</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01083130762940753</v>
+        <v>0.01128881438188189</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03099092081812088</v>
+        <v>0.03167763107708293</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -5826,19 +5826,19 @@
         <v>24092</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16276</v>
+        <v>16215</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35562</v>
+        <v>34872</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01734204723685506</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01171569484199104</v>
+        <v>0.01167177074069204</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02559842229870403</v>
+        <v>0.02510211308303322</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>141384</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>119469</v>
+        <v>120966</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>166025</v>
+        <v>165611</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2090435892388991</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1766415416141404</v>
+        <v>0.1788543324045189</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2454769202673619</v>
+        <v>0.2448653416363394</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>425</v>
@@ -5876,19 +5876,19 @@
         <v>218460</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>200641</v>
+        <v>198345</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>238519</v>
+        <v>236884</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3064459353289306</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2814509959037777</v>
+        <v>0.2782291210058798</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3345842269531498</v>
+        <v>0.332290405657624</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>589</v>
@@ -5897,19 +5897,19 @@
         <v>359843</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>333311</v>
+        <v>332313</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>390871</v>
+        <v>391105</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2590259130416044</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2399269051058373</v>
+        <v>0.2392086978616844</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2813603943110818</v>
+        <v>0.2815286802319991</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>524808</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>501449</v>
+        <v>498074</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>547911</v>
+        <v>544788</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.775957975514498</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7414197544856554</v>
+        <v>0.7364298326128614</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8101163128933767</v>
+        <v>0.8054995520265301</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>760</v>
@@ -5947,19 +5947,19 @@
         <v>480474</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>459507</v>
+        <v>461000</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>498778</v>
+        <v>502367</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.6739885487285721</v>
+        <v>0.6739885487285719</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6445762972692755</v>
+        <v>0.6466708980290707</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6996637257272811</v>
+        <v>0.7046992278465677</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1299</v>
@@ -5968,19 +5968,19 @@
         <v>1005283</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>972886</v>
+        <v>975184</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1032206</v>
+        <v>1034504</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.7236320397215403</v>
+        <v>0.7236320397215406</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.700312300265365</v>
+        <v>0.7019661357915934</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7430121330947518</v>
+        <v>0.7446663897647414</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>14049</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8030</v>
+        <v>7756</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22868</v>
+        <v>23612</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01375200334551358</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007860530029988259</v>
+        <v>0.007592422386964211</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02238551785836079</v>
+        <v>0.02311364447985881</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>29</v>
@@ -6093,19 +6093,19 @@
         <v>20444</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13472</v>
+        <v>13914</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30098</v>
+        <v>31036</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01985656414063552</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01308538418685295</v>
+        <v>0.01351437915792446</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02923327180330833</v>
+        <v>0.03014476571288741</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>44</v>
@@ -6114,19 +6114,19 @@
         <v>34492</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>25676</v>
+        <v>24565</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>47845</v>
+        <v>46467</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01681618808017652</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01251811712559547</v>
+        <v>0.01197624699388591</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02332637991089226</v>
+        <v>0.02265437172477435</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>195723</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>171193</v>
+        <v>170638</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>224194</v>
+        <v>224087</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1915915407726947</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1675794457443584</v>
+        <v>0.1670357288679201</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.219461634565344</v>
+        <v>0.2193566303067913</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>416</v>
@@ -6164,19 +6164,19 @@
         <v>250204</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>227230</v>
+        <v>227577</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>274161</v>
+        <v>274269</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2430190440576875</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2207050107265565</v>
+        <v>0.2210424617483789</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2662882773590546</v>
+        <v>0.2663935202654647</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>627</v>
@@ -6185,19 +6185,19 @@
         <v>445927</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>409097</v>
+        <v>413900</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>478617</v>
+        <v>483259</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2174055797832695</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1994496959955011</v>
+        <v>0.2017914951839751</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2333433675520651</v>
+        <v>0.2356062857643782</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>811792</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>783320</v>
+        <v>782845</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>836889</v>
+        <v>839039</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7946564558817917</v>
+        <v>0.7946564558817918</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7667849902963221</v>
+        <v>0.766320401469032</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8192228361755255</v>
+        <v>0.8213283238229949</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1011</v>
@@ -6235,19 +6235,19 @@
         <v>758917</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>733319</v>
+        <v>735333</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>781176</v>
+        <v>781635</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7371243918016771</v>
+        <v>0.737124391801677</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7122621510743152</v>
+        <v>0.7142181976271106</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7587448311429253</v>
+        <v>0.7591903700213759</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1733</v>
@@ -6256,19 +6256,19 @@
         <v>1570709</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1536836</v>
+        <v>1530409</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1608383</v>
+        <v>1601253</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7657782321365538</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7492638892465696</v>
+        <v>0.7461301989673043</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7841456038846643</v>
+        <v>0.7806694706979781</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>16671</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10568</v>
+        <v>10452</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25541</v>
+        <v>26149</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.02248481487508508</v>
+        <v>0.02248481487508507</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0142535564084878</v>
+        <v>0.01409623637598699</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03444754166663055</v>
+        <v>0.03526760662504674</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>34</v>
@@ -6381,19 +6381,19 @@
         <v>22956</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15964</v>
+        <v>16920</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32560</v>
+        <v>32434</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02989192432183067</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02078726041001819</v>
+        <v>0.02203180269628683</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04239649715246052</v>
+        <v>0.04223303145641851</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>53</v>
@@ -6402,19 +6402,19 @@
         <v>39628</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30134</v>
+        <v>30532</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>52590</v>
+        <v>51955</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02625347555263959</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01996366184036718</v>
+        <v>0.02022777790548177</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03484121187369069</v>
+        <v>0.0344206697027707</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>185547</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>160319</v>
+        <v>160643</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>212564</v>
+        <v>211128</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.250250692741643</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2162242455171393</v>
+        <v>0.2166612360633753</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2866879057858447</v>
+        <v>0.284751837637826</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>286</v>
@@ -6452,19 +6452,19 @@
         <v>209835</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>185721</v>
+        <v>188455</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>231322</v>
+        <v>231779</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2732296107227991</v>
+        <v>0.2732296107227992</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2418302437025807</v>
+        <v>0.245390128306489</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3012080342838211</v>
+        <v>0.3018031809166573</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>452</v>
@@ -6473,19 +6473,19 @@
         <v>395383</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>361419</v>
+        <v>362140</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>429812</v>
+        <v>432065</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2619421285481414</v>
+        <v>0.2619421285481413</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2394411460218087</v>
+        <v>0.2399186472114615</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2847514999054298</v>
+        <v>0.2862446602039518</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>539227</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>510270</v>
+        <v>512719</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>564713</v>
+        <v>564771</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.727264492383272</v>
+        <v>0.7272644923832718</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6882091342696619</v>
+        <v>0.6915122371010649</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7616369179694926</v>
+        <v>0.7617160408350624</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>674</v>
@@ -6523,19 +6523,19 @@
         <v>535189</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>512559</v>
+        <v>512134</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>560067</v>
+        <v>557914</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6968784649553702</v>
+        <v>0.6968784649553703</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6674112598112055</v>
+        <v>0.6668579804869114</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7292719807778987</v>
+        <v>0.7264690929854309</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1125</v>
@@ -6544,19 +6544,19 @@
         <v>1074417</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1038007</v>
+        <v>1035863</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1110759</v>
+        <v>1106730</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7118043958992191</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6876830759011352</v>
+        <v>0.6862621256163468</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7358813269450013</v>
+        <v>0.7332119862668139</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>11002</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6396</v>
+        <v>6528</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17495</v>
+        <v>17665</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01112239900746488</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006466676265152141</v>
+        <v>0.006599843817774441</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01768673012432498</v>
+        <v>0.01785876681883682</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -6669,19 +6669,19 @@
         <v>35612</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25829</v>
+        <v>26414</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47865</v>
+        <v>48907</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0319912711095864</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02320322467990847</v>
+        <v>0.02372821963079389</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04299898672516235</v>
+        <v>0.04393448805986722</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>68</v>
@@ -6690,19 +6690,19 @@
         <v>46613</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35755</v>
+        <v>34224</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60794</v>
+        <v>59270</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02217247134500525</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01700766947481047</v>
+        <v>0.0162794420358699</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02891775840094053</v>
+        <v>0.02819285136905975</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>265727</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>238419</v>
+        <v>240362</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>293388</v>
+        <v>295433</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.268644604066849</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2410373775204135</v>
+        <v>0.2430014477720008</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2966096777316272</v>
+        <v>0.2986771575429566</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>522</v>
@@ -6740,19 +6740,19 @@
         <v>341616</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>315471</v>
+        <v>314874</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>369786</v>
+        <v>369745</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3068837621258857</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2833975380475723</v>
+        <v>0.2828606270586519</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3321898218369864</v>
+        <v>0.332152980767523</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>824</v>
@@ -6761,19 +6761,19 @@
         <v>607342</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>562632</v>
+        <v>567608</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>641790</v>
+        <v>649977</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2888922466136659</v>
+        <v>0.2888922466136658</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2676251777278213</v>
+        <v>0.2699921018707632</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.305277745047963</v>
+        <v>0.3091723551427326</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>712410</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>685370</v>
+        <v>683832</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>741614</v>
+        <v>738844</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7202329969256861</v>
+        <v>0.7202329969256863</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6928966279676101</v>
+        <v>0.6913410219115962</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7497578712470272</v>
+        <v>0.7469570181961793</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>980</v>
@@ -6811,19 +6811,19 @@
         <v>735948</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>707981</v>
+        <v>705698</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>763836</v>
+        <v>761902</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.6611249667645278</v>
+        <v>0.6611249667645279</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6360007270605216</v>
+        <v>0.6339501883903722</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.686177530539866</v>
+        <v>0.6844399604679743</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1667</v>
@@ -6832,19 +6832,19 @@
         <v>1448358</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1411320</v>
+        <v>1405592</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1491293</v>
+        <v>1489220</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6889352820413288</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6713174145239416</v>
+        <v>0.6685926912387101</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7093579943702584</v>
+        <v>0.7083719434461159</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>51865</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>40300</v>
+        <v>40202</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>67208</v>
+        <v>66081</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0151277932305876</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01175456921472669</v>
+        <v>0.01172592797218506</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01960289280361484</v>
+        <v>0.01927417234963846</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>134</v>
@@ -6957,19 +6957,19 @@
         <v>92960</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>76793</v>
+        <v>77668</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>110717</v>
+        <v>112082</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02565398382452969</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02119247379501914</v>
+        <v>0.02143397779993783</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03055444394756477</v>
+        <v>0.03093100025477498</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>197</v>
@@ -6978,19 +6978,19 @@
         <v>144825</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>125943</v>
+        <v>124979</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>169965</v>
+        <v>167730</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02053650781440632</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01785902890430757</v>
+        <v>0.0177223176292021</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02410131573431561</v>
+        <v>0.02378450816398762</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>788381</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>734698</v>
+        <v>739002</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>838864</v>
+        <v>842499</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2299502294411165</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2142924017783474</v>
+        <v>0.2155475406572317</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2446749569255689</v>
+        <v>0.2457351318101312</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1649</v>
@@ -7028,19 +7028,19 @@
         <v>1020114</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>970998</v>
+        <v>973797</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1064999</v>
+        <v>1063868</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.281519312021153</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2679649860656368</v>
+        <v>0.2687373031706793</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2939060484006469</v>
+        <v>0.2935941709732001</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2492</v>
@@ -7049,19 +7049,19 @@
         <v>1808495</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1735417</v>
+        <v>1737307</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1873200</v>
+        <v>1877801</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.256448177253815</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2460856045856352</v>
+        <v>0.2463535402391888</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2656235640074069</v>
+        <v>0.2662758927852159</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>2588239</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2536293</v>
+        <v>2531189</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2643302</v>
+        <v>2637658</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7549219773282958</v>
+        <v>0.7549219773282959</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7397707995945242</v>
+        <v>0.7382820511464686</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.770982488003939</v>
+        <v>0.7693361878954454</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3425</v>
@@ -7099,19 +7099,19 @@
         <v>2510528</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2457275</v>
+        <v>2466692</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2557523</v>
+        <v>2562088</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6928267041543175</v>
+        <v>0.6928267041543174</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6781306238117023</v>
+        <v>0.6807292272499946</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7057957400703344</v>
+        <v>0.7070555518718867</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5824</v>
@@ -7120,19 +7120,19 @@
         <v>5098767</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5030881</v>
+        <v>5029597</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5174358</v>
+        <v>5171530</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7230153149317786</v>
+        <v>0.7230153149317788</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7133889146434906</v>
+        <v>0.7132068531150032</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7337342263604703</v>
+        <v>0.7333332626634406</v>
       </c>
     </row>
     <row r="23">
